--- a/Exp4/Dados/Buck/2.xlsx
+++ b/Exp4/Dados/Buck/2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>D</t>
   </si>
@@ -45,22 +45,19 @@
     <t>Vr</t>
   </si>
   <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>0.62</t>
+    <t>Ia</t>
+  </si>
+  <si>
+    <t>R:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,10 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,15 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,8 +422,17 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1">
+        <v>5.3</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
@@ -436,7 +443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30</v>
       </c>
@@ -446,11 +453,15 @@
       <c r="C3">
         <v>102</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
+      <c r="E3">
+        <v>0.62</v>
+      </c>
+      <c r="F3" s="3">
+        <f>E3/$I$1</f>
+        <v>0.1169811320754717</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>40</v>
       </c>
@@ -460,11 +471,15 @@
       <c r="C4">
         <v>234</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
+      <c r="E4">
+        <v>0.76</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F6" si="0">E4/$I$1</f>
+        <v>0.14339622641509434</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50</v>
       </c>
@@ -474,11 +489,15 @@
       <c r="C5">
         <v>390</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
+      <c r="E5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.169811320754717</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60</v>
       </c>
@@ -488,8 +507,12 @@
       <c r="C6">
         <v>574</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
+      <c r="E6">
+        <v>1.02</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19245283018867926</v>
       </c>
     </row>
   </sheetData>

--- a/Exp4/Dados/Buck/2.xlsx
+++ b/Exp4/Dados/Buck/2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>D</t>
   </si>
@@ -27,18 +27,6 @@
     <t>w</t>
   </si>
   <si>
-    <t>4.32</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>3.08</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -48,7 +36,10 @@
     <t>Ia</t>
   </si>
   <si>
-    <t>R:</t>
+    <t>Rr</t>
+  </si>
+  <si>
+    <t>Tm</t>
   </si>
 </sst>
 </file>
@@ -56,7 +47,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -95,11 +86,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,35 +412,42 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1">
         <v>5.3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="H2" t="e">
+        <f>B2*F2</f>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
+      <c r="B3" s="2">
+        <v>2.1800000000000002</v>
       </c>
       <c r="C3">
         <v>102</v>
@@ -457,16 +456,20 @@
         <v>0.62</v>
       </c>
       <c r="F3" s="3">
-        <f>E3/$I$1</f>
+        <f>E3/$M$1</f>
         <v>0.1169811320754717</v>
       </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H6" si="0">B3*F3</f>
+        <v>0.25501886792452833</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B4">
+        <v>3.08</v>
       </c>
       <c r="C4">
         <v>234</v>
@@ -475,16 +478,20 @@
         <v>0.76</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F6" si="0">E4/$I$1</f>
+        <f>E4/$M$1</f>
         <v>0.14339622641509434</v>
       </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.44166037735849056</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="B5">
+        <v>4.32</v>
       </c>
       <c r="C5">
         <v>390</v>
@@ -493,16 +500,20 @@
         <v>0.9</v>
       </c>
       <c r="F5" s="3">
+        <f>E5/$M$1</f>
+        <v>0.169811320754717</v>
+      </c>
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>0.169811320754717</v>
+        <v>0.73358490566037748</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B6">
+        <v>5.4</v>
       </c>
       <c r="C6">
         <v>574</v>
@@ -511,8 +522,12 @@
         <v>1.02</v>
       </c>
       <c r="F6" s="3">
+        <f>E6/$M$1</f>
+        <v>0.19245283018867926</v>
+      </c>
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>0.19245283018867926</v>
+        <v>1.0392452830188681</v>
       </c>
     </row>
   </sheetData>

--- a/Exp4/Dados/Buck/2.xlsx
+++ b/Exp4/Dados/Buck/2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t xml:space="preserve">D</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t xml:space="preserve">ke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
   </si>
   <si>
     <t xml:space="preserve">Rr</t>
@@ -93,18 +99,17 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,7 +154,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -170,10 +175,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -183,7 +184,312 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plan1!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plan1!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.6814150222053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.5044226980004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.8407044966673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.1091394386847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="73181253"/>
+        <c:axId val="83957109"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="73181253"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83957109"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83957109"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73181253"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68760</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>512280</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3021480" y="2041200"/>
+        <a:ext cx="5758200" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -191,15 +497,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3:M4"/>
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -230,10 +536,16 @@
       <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="L1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="0" t="n">
         <v>5.3</v>
       </c>
     </row>
@@ -242,15 +554,15 @@
         <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="0" t="n">
         <v>7.9</v>
       </c>
     </row>
@@ -272,20 +584,24 @@
         <v>0.62</v>
       </c>
       <c r="F3" s="2" t="n">
-        <f aca="false">E3/$M$1</f>
+        <f aca="false">E3/$O$1</f>
         <v>0.116981132075472</v>
       </c>
       <c r="H3" s="3" t="n">
-        <f aca="false">(B3*F3 - M2*F3*F3)/D3</f>
+        <f aca="false">(B3*F3 - O2*F3*F3)/D3</f>
         <v>0.0137538560248819</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">H3/F3</f>
         <v>0.117573285373991</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <f aca="false">(B3-M2*F3)/D3</f>
+      <c r="J3" s="1" t="n">
+        <f aca="false">(B3-O2*F3)/D3</f>
         <v>0.117573285373991</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">H3/D3</f>
+        <v>0.00128764363113777</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,20 +622,24 @@
         <v>0.76</v>
       </c>
       <c r="F4" s="2" t="n">
-        <f aca="false">E4/$M$1</f>
+        <f aca="false">E4/$O$1</f>
         <v>0.143396226415094</v>
       </c>
       <c r="H4" s="3" t="n">
-        <f aca="false">(B4*F4 - M2*F4*F4)/D4</f>
+        <f aca="false">(B4*F4 - O2*F4*F4)/D4</f>
         <v>0.0113945472853589</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">H4/F4</f>
         <v>0.0794619744900029</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <f aca="false">(B4-M2*F4)/D4</f>
+      <c r="J4" s="1" t="n">
+        <f aca="false">(B4-O2*F4)/D4</f>
         <v>0.0794619744900029</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">H4/D4</f>
+        <v>0.00046499962173313</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,24 +656,28 @@
         <f aca="false">C5*PI()/30</f>
         <v>40.8407044966673</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="4" t="n">
         <v>0.9</v>
       </c>
       <c r="F5" s="2" t="n">
-        <f aca="false">E5/$M$1</f>
+        <f aca="false">E5/$O$1</f>
         <v>0.169811320754717</v>
       </c>
       <c r="H5" s="3" t="n">
-        <f aca="false">(B5*F5 - M2*F5*F5)/D5</f>
+        <f aca="false">(B5*F5 - O2*F5*F5)/D5</f>
         <v>0.0123842480953189</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">H5/F5</f>
         <v>0.0729294610057666</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <f aca="false">(B5-M2*F5)/D5</f>
+      <c r="J5" s="1" t="n">
+        <f aca="false">(B5-O2*F5)/D5</f>
         <v>0.0729294610057666</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">H5/D5</f>
+        <v>0.000303232969360983</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -374,22 +698,27 @@
         <v>1.02</v>
       </c>
       <c r="F6" s="2" t="n">
-        <f aca="false">E6/$M$1</f>
+        <f aca="false">E6/$O$1</f>
         <v>0.192452830188679</v>
       </c>
       <c r="H6" s="3" t="n">
-        <f aca="false">(B6*F6 - M2*F6*F6)/D6</f>
+        <f aca="false">(B6*F6 - O2*F6*F6)/D6</f>
         <v>0.0124214780713039</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">H6/F6</f>
         <v>0.0645429742920693</v>
       </c>
-      <c r="J6" s="4" t="n">
-        <f aca="false">(B6-M2*F6)/D6</f>
+      <c r="J6" s="1" t="n">
+        <f aca="false">(B6-O2*F6)/D6</f>
         <v>0.0645429742920693</v>
       </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">H6/D6</f>
+        <v>0.000206648742392571</v>
+      </c>
     </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -398,6 +727,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -409,12 +739,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L3:M4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -435,12 +765,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L3:M4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
